--- a/PCBproject/NixieProject/NixieClock4X.xlsx
+++ b/PCBproject/NixieProject/NixieClock4X.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
   <si>
     <t>NixieClock4X Bom</t>
   </si>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t>3.80</t>
+  </si>
+  <si>
+    <t>肖特基二极管</t>
+  </si>
+  <si>
+    <t>SR5200</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>SMB</t>
   </si>
   <si>
     <t>按键</t>
@@ -481,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
@@ -521,29 +533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +548,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +592,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -580,7 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,17 +608,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,23 +631,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,21 +654,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -727,169 +739,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,25 +930,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -951,28 +959,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,6 +999,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1006,15 +1027,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1023,10 +1035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,133 +1047,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,10 +1633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2356,76 +2368,73 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" ht="12.75" spans="1:10">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="J37" s="4">
+    <row r="37" ht="12.75" spans="1:8">
+      <c r="A37" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" ht="12.75" spans="1:10">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="12.75" spans="1:10">
-      <c r="A38" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="18" t="s">
+    <row r="39" ht="12.75" spans="1:10">
+      <c r="A39" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17"/>
-      <c r="J38" s="4" t="s">
+      <c r="B39" s="17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" ht="12.75" spans="1:10">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="J39" s="4">
+      <c r="C39" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17"/>
+      <c r="J39" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" spans="1:10">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="J40" s="4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" spans="1:10">
-      <c r="A40" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="19"/>
-      <c r="J40" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" ht="12.75" spans="1:10">
@@ -2442,13 +2451,13 @@
         <v>119</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="19"/>
       <c r="J41" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" ht="12.75" spans="1:10">
@@ -2471,21 +2480,21 @@
       <c r="G42" s="20"/>
       <c r="H42" s="19"/>
       <c r="J42" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" spans="1:10">
+      <c r="A43" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="43" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A43" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>128</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>16</v>
@@ -2493,8 +2502,8 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="19"/>
-      <c r="J43" s="25">
-        <v>1.12</v>
+      <c r="J43" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="13.5" spans="1:10">
@@ -2517,21 +2526,21 @@
       <c r="G44" s="20"/>
       <c r="H44" s="19"/>
       <c r="J44" s="25">
-        <v>0.22</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="13.5" spans="1:10">
       <c r="A45" s="19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>16</v>
@@ -2540,21 +2549,21 @@
       <c r="G45" s="20"/>
       <c r="H45" s="19"/>
       <c r="J45" s="25">
-        <v>7.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="13.5" spans="1:10">
       <c r="A46" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>16</v>
@@ -2563,7 +2572,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="19"/>
       <c r="J46" s="25">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="13.5" spans="1:10">
@@ -2586,93 +2595,116 @@
       <c r="G47" s="20"/>
       <c r="H47" s="19"/>
       <c r="J47" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A48" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19"/>
+      <c r="J48" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.75" spans="1:10">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="21"/>
-      <c r="J48" s="26">
+    <row r="49" s="1" customFormat="1" ht="12.75" spans="1:10">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="21"/>
+      <c r="J49" s="26">
         <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75" spans="1:10">
-      <c r="A49" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="23"/>
-      <c r="J49" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" ht="12.75" spans="1:10">
       <c r="A50" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="C50" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="D50" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>149</v>
-      </c>
       <c r="E50" s="24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="23"/>
       <c r="J50" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="97" spans="9:9">
-      <c r="I97" s="3" t="s">
+    <row r="51" ht="12.75" spans="1:10">
+      <c r="A51" s="23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="113" ht="12.75" spans="9:9">
-      <c r="I113" s="2"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="12.75" spans="1:10">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="27"/>
+      <c r="B51" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="23"/>
+      <c r="J51" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="98" spans="9:9">
+      <c r="I98" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75" spans="9:9">
+      <c r="I114" s="2"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="12.75" spans="1:10">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
